--- a/TPS/TPL1/datos/Datos_Analizador.xlsx
+++ b/TPS/TPL1/datos/Datos_Analizador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://frbautneduar-my.sharepoint.com/personal/jcostasurez_frba_utn_edu_ar/Documents/UTN/circuitos_2/TPL1/código/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="10_ncr:40000_{B79B9E77-4741-42F8-9C90-BEC449BF514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E9181FB5-74A4-4BA6-A2AA-5459C9BBC199}"/>
+  <xr:revisionPtr revIDLastSave="86" documentId="10_ncr:40000_{B79B9E77-4741-42F8-9C90-BEC449BF514E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD54CCCF-15BB-4D21-A41E-CA35705BE756}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -182,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +198,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -240,6 +246,8 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,7 +565,7 @@
   <dimension ref="A1:I209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -587,6 +595,7 @@
       <c r="F1" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="G1" s="10"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B2" s="9">
@@ -596,7 +605,7 @@
         <v>8.2866507428268153E-3</v>
       </c>
       <c r="D2" s="5">
-        <v>1256.6370614359173</v>
+        <v>125.66370614359172</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>0</v>
@@ -615,7 +624,7 @@
         <v>8.9111795574116134E-3</v>
       </c>
       <c r="D3" s="5">
-        <v>1656.1916736767998</v>
+        <v>165.61916736767998</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>1</v>
@@ -633,7 +642,7 @@
         <v>9.5834170808939238E-3</v>
       </c>
       <c r="D4" s="7">
-        <v>2182.7868555953996</v>
+        <v>218.27868555953995</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>2</v>
@@ -642,6 +651,7 @@
         <f t="shared" si="0"/>
         <v>-1.658237759078232</v>
       </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" s="9">
@@ -651,7 +661,7 @@
         <v>1.0306578935054819E-2</v>
       </c>
       <c r="D5" s="5">
-        <v>2876.8158496912283</v>
+        <v>287.68158496912281</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>3</v>
@@ -669,7 +679,7 @@
         <v>1.1083228659421327E-2</v>
       </c>
       <c r="D6" s="5">
-        <v>3791.5151503774309</v>
+        <v>379.15151503774308</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>4</v>
@@ -687,7 +697,7 @@
         <v>1.1918690933730719E-2</v>
       </c>
       <c r="D7" s="5">
-        <v>4997.0480860234893</v>
+        <v>499.70480860234892</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>5</v>
@@ -705,7 +715,7 @@
         <v>1.2816344729661974E-2</v>
       </c>
       <c r="D8" s="5">
-        <v>6585.8867981960684</v>
+        <v>658.5886798196068</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>6</v>
@@ -723,7 +733,7 @@
         <v>1.3784428678357247E-2</v>
       </c>
       <c r="D9" s="5">
-        <v>8679.905450573453</v>
+        <v>867.99054505734534</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>7</v>
@@ -732,6 +742,7 @@
         <f t="shared" si="0"/>
         <v>-1.5886019555270576</v>
       </c>
+      <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
@@ -741,7 +752,7 @@
         <v>1.4821575383090301E-2</v>
       </c>
       <c r="D10" s="5">
-        <v>11439.728762348539</v>
+        <v>1143.9728762348539</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>8</v>
@@ -759,7 +770,7 @@
         <v>1.5937793977122684E-2</v>
       </c>
       <c r="D11" s="5">
-        <v>15077.052958849725</v>
+        <v>1507.7052958849724</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>9</v>
@@ -777,7 +788,7 @@
         <v>1.7170955290015825E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>19870.884235658381</v>
+        <v>1987.0884235658382</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>10</v>
@@ -795,7 +806,7 @@
         <v>1.8432987380029565E-2</v>
       </c>
       <c r="D13" s="5">
-        <v>26188.940331019494</v>
+        <v>2618.8940331019494</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>11</v>
@@ -814,7 +825,7 @@
         <v>1.9833856344577513E-2</v>
       </c>
       <c r="D14" s="5">
-        <v>34515.856845007467</v>
+        <v>3451.5856845007465</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>12</v>
@@ -832,7 +843,7 @@
         <v>2.1331257194772593E-2</v>
       </c>
       <c r="D15" s="5">
-        <v>45490.361911816697</v>
+        <v>4549.0361911816699</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>13</v>
@@ -850,7 +861,7 @@
         <v>2.2932030866259355E-2</v>
       </c>
       <c r="D16" s="5">
-        <v>59954.270762001477</v>
+        <v>5995.4270762001479</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>14</v>
@@ -868,7 +879,7 @@
         <v>2.4668932965586084E-2</v>
       </c>
       <c r="D17" s="5">
-        <v>79017.058373186068</v>
+        <v>7901.7058373186064</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>15</v>
@@ -886,7 +897,7 @@
         <v>2.6519023370796556E-2</v>
       </c>
       <c r="D18" s="5">
-        <v>104140.96334749734</v>
+        <v>10414.096334749735</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -904,7 +915,7 @@
         <v>2.8518402409332868E-2</v>
       </c>
       <c r="D19" s="5">
-        <v>137253.15103131026</v>
+        <v>13725.315103131026</v>
       </c>
       <c r="E19" s="6" t="s">
         <v>17</v>
@@ -922,7 +933,7 @@
         <v>3.0686859130926197E-2</v>
       </c>
       <c r="D20" s="5">
-        <v>180893.53951109093</v>
+        <v>18089.353951109093</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>18</v>
@@ -940,7 +951,7 @@
         <v>3.2997158892110759E-2</v>
       </c>
       <c r="D21" s="5">
-        <v>238409.62769143315</v>
+        <v>23840.962769143316</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>19</v>
@@ -958,7 +969,7 @@
         <v>3.5504690481662604E-2</v>
       </c>
       <c r="D22" s="5">
-        <v>314213.27002384688</v>
+        <v>31421.327002384689</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>20</v>
@@ -976,7 +987,7 @@
         <v>3.8161044366928444E-2</v>
       </c>
       <c r="D23" s="5">
-        <v>414119.09416201152</v>
+        <v>41411.909416201153</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>21</v>
@@ -994,7 +1005,7 @@
         <v>4.105417392923822E-2</v>
       </c>
       <c r="D24" s="5">
-        <v>545790.52035755734</v>
+        <v>54579.052035755733</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>22</v>
@@ -1012,7 +1023,7 @@
         <v>4.4158478024106093E-2</v>
       </c>
       <c r="D25" s="5">
-        <v>719327.59515704238</v>
+        <v>71932.759515704238</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>23</v>
@@ -1030,7 +1041,7 @@
         <v>4.7490605167741402E-2</v>
       </c>
       <c r="D26" s="5">
-        <v>948041.73003121465</v>
+        <v>94804.173003121468</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>24</v>
@@ -1048,7 +1059,7 @@
         <v>5.1089282459332044E-2</v>
       </c>
       <c r="D27" s="5">
-        <v>1249476.7723798493</v>
+        <v>124947.67723798493</v>
       </c>
       <c r="E27" s="6" t="s">
         <v>25</v>
@@ -1066,7 +1077,7 @@
         <v>5.4954794443860748E-2</v>
       </c>
       <c r="D28" s="5">
-        <v>1646754.7316354471</v>
+        <v>164675.47316354472</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>26</v>
@@ -1084,7 +1095,7 @@
         <v>5.9130397228169505E-2</v>
       </c>
       <c r="D29" s="5">
-        <v>2170349.3863264369</v>
+        <v>217034.93863264369</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>27</v>
@@ -1102,7 +1113,7 @@
         <v>6.3610305064260311E-2</v>
       </c>
       <c r="D30" s="5">
-        <v>2860423.8191861524</v>
+        <v>286042.38191861525</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>28</v>
@@ -1120,7 +1131,7 @@
         <v>6.8446558068001415E-2</v>
       </c>
       <c r="D31" s="5">
-        <v>3769911.1843077457</v>
+        <v>376991.11843077454</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>29</v>
